--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHPGo\OneDrive\Desktop\UFLA\Matérias\Robótica - (GAT109)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\OneDrive\Documents\GitHub\Codigos-matilab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA00AC6-A7CA-40E4-A69E-A2290F1E7736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F08D101-3D83-40F6-B664-A5113B15FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8040" windowWidth="29040" windowHeight="15720" xr2:uid="{A7DF6152-DE44-4C19-AD57-08FD4CAC75EC}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{A7DF6152-DE44-4C19-AD57-08FD4CAC75EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="D3:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
       </c>
       <c r="E4" s="1">
         <f>$I$4+$J$4*D4+$K$4*D4^2+$L$4*D4^3+$M$4*D4^4+$N$4*D4^5</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1">
         <f>$J$4+$K$4*D4*2+3*$L$4*D4^2+4*$M$4*D4^3+5*$N$4*D4^4</f>
@@ -505,19 +505,19 @@
       </c>
       <c r="G4" s="1">
         <f>2*$K$4+6*$L$4*D4+12*$M$4*D4^2+20*$N$4*D4^3</f>
-        <v>10.8</v>
+        <v>-13.2</v>
       </c>
       <c r="I4" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>5.4</v>
+        <v>-6.6</v>
       </c>
       <c r="L4" s="1">
-        <v>-0.72</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.25">
@@ -525,16 +525,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E9" si="0">$I$4+$J$4*D5+$K$4*D5^2+$L$4*D5^3+$M$4*D5^4+$N$4*D5^5</f>
-        <v>34.68</v>
+        <f t="shared" ref="E5:E10" si="0">$I$4+$J$4*D5+$K$4*D5^2+$L$4*D5^3+$M$4*D5^4+$N$4*D5^5</f>
+        <v>74.28</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F9" si="1">$J$4+$K$4*D5*2+3*$L$4*D5^2+4*$M$4*D5^3+5*$N$4*D5^4</f>
-        <v>8.64</v>
+        <f t="shared" ref="F5:F10" si="1">$J$4+$K$4*D5*2+3*$L$4*D5^2+4*$M$4*D5^3+5*$N$4*D5^4</f>
+        <v>-10.559999999999999</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G9" si="2">2*$K$4+6*$L$4*D5+12*$M$4*D5^2+20*$N$4*D5^3</f>
-        <v>6.48</v>
+        <f t="shared" ref="G5:G10" si="2">2*$K$4+6*$L$4*D5+12*$M$4*D5^2+20*$N$4*D5^3</f>
+        <v>-7.919999999999999</v>
       </c>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.25">
@@ -543,15 +543,15 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>45.84</v>
+        <v>60.64</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>12.96</v>
+        <v>-15.839999999999998</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>2.16</v>
+        <v>-2.6399999999999988</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
@@ -560,15 +560,15 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>59.16</v>
+        <v>44.36</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>12.960000000000004</v>
+        <v>-15.839999999999993</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>-2.16</v>
+        <v>2.6400000000000006</v>
       </c>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.25">
@@ -577,15 +577,15 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>70.320000000000007</v>
+        <v>30.720000000000006</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>8.64</v>
+        <v>-10.559999999999995</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>-6.48</v>
+        <v>7.9200000000000017</v>
       </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
@@ -602,7 +602,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>-10.8</v>
+        <v>13.200000000000003</v>
       </c>
     </row>
   </sheetData>
